--- a/report_data/df_trans_fee_cad_AW_t.xlsx
+++ b/report_data/df_trans_fee_cad_AW_t.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3911B-4917-4FF1-8399-85C9CEDB9E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7530" yWindow="150" windowWidth="15030" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>XSP.TO</t>
   </si>
@@ -65,13 +71,19 @@
   </si>
   <si>
     <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>Tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +131,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +247,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +299,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,14 +492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,265 +523,345 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>14.71577106207603</v>
       </c>
-      <c r="C2">
-        <v>8.84577092926942</v>
-      </c>
-      <c r="D2">
-        <v>14.96435620092308</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="3">
+        <v>8.8457709292694204</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14.964356200923079</v>
+      </c>
+      <c r="E2" s="3">
         <v>25.43510596422988</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>10.92975086086703</v>
       </c>
-      <c r="G2">
-        <v>5.4254239562947</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="3">
+        <v>5.4254239562946998</v>
+      </c>
+      <c r="H2" s="3">
         <v>28.26438258912312</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="3">
+        <f>SUM(B2:H2)</f>
+        <v>108.58056156278325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.1499966822960889</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1.026403766745972</v>
       </c>
-      <c r="D3">
-        <v>0.1144059471107736</v>
-      </c>
-      <c r="E3">
-        <v>2.579588077113791</v>
-      </c>
-      <c r="F3">
-        <v>8.516470703074964</v>
-      </c>
-      <c r="G3">
-        <v>10.46632557256799</v>
-      </c>
-      <c r="H3">
-        <v>2.675614509904179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="3">
+        <v>0.11440594711077361</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.5795880771137911</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8.5164707030749636</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10.466325572567991</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.6756145099041788</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I11" si="0">SUM(B3:H3)</f>
+        <v>25.528805258813762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0.1017886648621455</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <v>0.10178866486214549</v>
+      </c>
+      <c r="C4" s="3">
         <v>1.054323958440252</v>
       </c>
-      <c r="D4">
-        <v>0.1867201922783654</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>0.18672019227836539</v>
+      </c>
+      <c r="E4" s="3">
         <v>2.277992983219518</v>
       </c>
-      <c r="F4">
-        <v>7.250779850465549</v>
-      </c>
-      <c r="G4">
-        <v>7.884897417170994</v>
-      </c>
-      <c r="H4">
-        <v>6.243496933563208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="3">
+        <v>7.2507798504655492</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.8848974171709942</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.2434969335632076</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>25.000000000000032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>1.48913683265191</v>
-      </c>
-      <c r="C5">
-        <v>2.598317987018759</v>
-      </c>
-      <c r="D5">
-        <v>2.22051450921926</v>
-      </c>
-      <c r="E5">
-        <v>2.353688241173473</v>
-      </c>
-      <c r="F5">
-        <v>7.611976812388088</v>
-      </c>
-      <c r="G5">
-        <v>5.478543020958244</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="3">
+        <v>1.4891368326519101</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.5983179870187589</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.2205145092192602</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.3536882411734732</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7.6119768123880878</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5.4785430209582442</v>
+      </c>
+      <c r="H5" s="3">
         <v>3.247822596590312</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>25.000000000000046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>1.30521796042431</v>
-      </c>
-      <c r="C6">
-        <v>2.504599489676883</v>
-      </c>
-      <c r="D6">
-        <v>3.460175006328689</v>
-      </c>
-      <c r="E6">
-        <v>2.176806247087039</v>
-      </c>
-      <c r="F6">
-        <v>6.812896393503007</v>
-      </c>
-      <c r="G6">
-        <v>7.764676008807063</v>
-      </c>
-      <c r="H6">
-        <v>0.9756288941731026</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="3">
+        <v>1.3052179604243099</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.5045994896768828</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.4601750063286891</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.1768062470870388</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.8128963935030074</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7.7646760088070632</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.97562889417310261</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>25.000000000000096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>1.655768343958068</v>
-      </c>
-      <c r="C7">
-        <v>0.3334898312145886</v>
-      </c>
-      <c r="D7">
-        <v>1.811283469920557</v>
-      </c>
-      <c r="E7">
-        <v>2.434469654540019</v>
-      </c>
-      <c r="F7">
-        <v>7.356661984937302</v>
-      </c>
-      <c r="G7">
-        <v>7.563150925653107</v>
-      </c>
-      <c r="H7">
-        <v>3.845175789776513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="B7" s="3">
+        <v>1.6557683439580679</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.33348983121458858</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.8112834699205571</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4344696545400191</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7.3566619849373023</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7.5631509256531073</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.8451757897765129</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>25.000000000000153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>2.288649105749166</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>2.2886491057491658</v>
+      </c>
+      <c r="C8" s="3">
         <v>3.224480541599239</v>
       </c>
-      <c r="D8">
-        <v>2.442239233755139</v>
-      </c>
-      <c r="E8">
-        <v>2.207689986280702</v>
-      </c>
-      <c r="F8">
-        <v>6.938217309519148</v>
-      </c>
-      <c r="G8">
-        <v>7.614486812721376</v>
-      </c>
-      <c r="H8">
-        <v>0.2842370103752515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="3">
+        <v>2.4422392337551391</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.2076899862807018</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.9382173095191479</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.6144868127213758</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.28423701037525151</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>25.000000000000021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>20.62898718976574</v>
-      </c>
-      <c r="C9">
-        <v>12.32134804666044</v>
-      </c>
-      <c r="D9">
-        <v>5.359110254922997</v>
-      </c>
-      <c r="E9">
-        <v>32.94350619462546</v>
-      </c>
-      <c r="F9">
-        <v>26.01200471449335</v>
-      </c>
-      <c r="G9">
-        <v>20.27692812346895</v>
-      </c>
-      <c r="H9">
+      <c r="B9" s="3">
+        <v>20.628987189765741</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12.321348046660439</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.3591102549229968</v>
+      </c>
+      <c r="E9" s="3">
+        <v>32.943506194625463</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26.012004714493351</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20.276928123468949</v>
+      </c>
+      <c r="H9" s="3">
         <v>15.92299354123864</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>133.46487806517558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0.3488903853543125</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="3">
+        <v>0.34889038535431249</v>
+      </c>
+      <c r="C10" s="3">
         <v>0.1748211318802218</v>
       </c>
-      <c r="D10">
-        <v>7.678634417082272</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <v>7.6786344170822716</v>
+      </c>
+      <c r="E10" s="3">
         <v>1.395102392786721</v>
       </c>
-      <c r="F10">
-        <v>10.94472505747908</v>
-      </c>
-      <c r="G10">
-        <v>3.509580125569239</v>
-      </c>
-      <c r="H10">
-        <v>8.317049004747098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="3">
+        <v>10.944725057479079</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.5095801255692392</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8.3170490047470977</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>32.368802514898945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.444545385262666</v>
       </c>
-      <c r="C11">
-        <v>2.719234970457104</v>
-      </c>
-      <c r="D11">
-        <v>10.85602689923157</v>
-      </c>
-      <c r="E11">
-        <v>7.799214141480652</v>
-      </c>
-      <c r="F11">
-        <v>22.34059406083627</v>
-      </c>
-      <c r="G11">
-        <v>27.61001360673501</v>
-      </c>
-      <c r="H11">
-        <v>17.73001455410053</v>
+      <c r="C11" s="3">
+        <v>2.7192349704571042</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.856026899231569</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.7992141414806522</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22.340594060836271</v>
+      </c>
+      <c r="G11" s="3">
+        <v>27.610013606735009</v>
+      </c>
+      <c r="H11" s="3">
+        <v>17.730014554100531</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>90.499643618103804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM(B2:B11)</f>
+        <v>44.128751612400436</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:I12" si="1">SUM(C2:C11)</f>
+        <v>34.802790652962877</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>49.093466130772697</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>81.60316388253726</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>114.71407774756379</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>103.59402556994667</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>87.50641542359196</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>515.44269101977568</v>
       </c>
     </row>
   </sheetData>
